--- a/test_data/additional_underscore_fields/additional-ro-crate-metadata.xlsx
+++ b/test_data/additional_underscore_fields/additional-ro-crate-metadata.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/aditional-multi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/additional_underscore_fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5386050D-871A-7544-B075-89C3AF8FEEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AF339E-55BF-D944-9177-A93BAE4BFBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="7" r:id="rId1"/>
     <sheet name="WafFiles" sheetId="3" r:id="rId2"/>
     <sheet name="EafFiles" sheetId="2" r:id="rId3"/>
     <sheet name="Objects" sheetId="1" r:id="rId4"/>
+    <sheet name="Details" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>@id</t>
   </si>
@@ -86,9 +87,6 @@
     <t>.Filename</t>
   </si>
   <si>
-    <t>isRef_speaker</t>
-  </si>
-  <si>
     <t>isType_PrimaryMaterial</t>
   </si>
   <si>
@@ -171,13 +169,34 @@
   </si>
   <si>
     <t>#Maria</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>isRef_details</t>
+  </si>
+  <si>
+    <t>#rosa_detail</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>isRef_something_somethingElse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,6 +371,12 @@
       <sz val="10"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE01E5A"/>
+      <name val="Monaco"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -777,7 +802,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -810,6 +835,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1203,16 +1229,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>13</v>
@@ -1233,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1246,10 +1272,10 @@
         <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1258,10 +1284,10 @@
         <v>#Juan</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -1274,10 +1300,10 @@
         <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1286,10 +1312,10 @@
         <v>#Emilia</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1302,10 +1328,10 @@
         <v>53</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1314,10 +1340,10 @@
         <v>#Maria</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1330,10 +1356,10 @@
         <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -2141,19 +2167,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>10</v>
@@ -2162,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>2</v>
@@ -2174,17 +2200,17 @@
         <v>Audio_Anonymised/AUDIO_Rosa_anon.wav</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("AUDIO_",I2)</f>
         <v>AUDIO_Rosa</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -2211,17 +2237,17 @@
         <v>Audio_Anonymised/AUDIO_Juan_anon.wav</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C5" si="1">_xlfn.CONCAT("AUDIO_",I3)</f>
         <v>AUDIO_Juan</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -2248,17 +2274,17 @@
         <v>Audio_Anonymised/AUDIO_Emilia_anon.wav</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>AUDIO_Emilia</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -2285,17 +2311,17 @@
         <v>Audio_Anonymised/AUDIO_Maria_anon.wav</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
         <v>AUDIO_Maria</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -2326,7 +2352,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2349,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>10</v>
@@ -2373,7 +2399,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>2</v>
@@ -2385,17 +2411,17 @@
         <v>Transcripts_Anonymised/EAF_Rosa_anon.eaf</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("EAF_", J2)</f>
         <v>EAF_Rosa</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -2426,17 +2452,17 @@
         <v>Transcripts_Anonymised/EAF_Juan_anon.eaf</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C5" si="1">_xlfn.CONCAT("EAF_", J3)</f>
         <v>EAF_Juan</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -2467,17 +2493,17 @@
         <v>Transcripts_Anonymised/EAF_Emilia_anon.eaf</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>EAF_Emilia</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -2508,17 +2534,17 @@
         <v>Transcripts_Anonymised/EAF_Maria_anon.eaf</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
         <v>EAF_Maria</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -2550,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2561,110 +2587,120 @@
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT("#",B2)</f>
         <v>#OBJECT_Rosa</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.CONCAT("OBJECT_", F2)</f>
+        <f>_xlfn.CONCAT("OBJECT_", G2)</f>
         <v>OBJECT_Rosa</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("#",F2)," ","_")</f>
+        <f>SUBSTITUTE(_xlfn.CONCAT("#",G2)," ","_")</f>
         <v>#Rosa</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="str">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="str">
         <f>People!B2</f>
         <v>Rosa</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>43540</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT("#",B3)</f>
         <v>#OBJECT_Juan</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B5" si="1">_xlfn.CONCAT("OBJECT_", F3)</f>
+        <f t="shared" ref="B3:B5" si="1">_xlfn.CONCAT("OBJECT_", G3)</f>
         <v>OBJECT_Juan</v>
       </c>
       <c r="C3">
         <v>44</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="2">SUBSTITUTE(_xlfn.CONCAT("#",F3)," ","_")</f>
+        <f t="shared" ref="D3:D5" si="2">SUBSTITUTE(_xlfn.CONCAT("#",G3)," ","_")</f>
         <v>#Juan</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f>People!B3</f>
         <v>Juan</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>43580</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>#OBJECT_Emilia</v>
@@ -2680,21 +2716,24 @@
         <f t="shared" si="2"/>
         <v>#Emilia</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="str">
         <f>People!B4</f>
         <v>Emilia</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>43540</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>#OBJECT_Maria</v>
@@ -2710,21 +2749,73 @@
         <f t="shared" si="2"/>
         <v>#Maria</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="str">
         <f>People!B5</f>
         <v>Maria</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>43575</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE848FC5-9050-E84C-986C-D61AA8E17976}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>